--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25718"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/ldusa012_uottawa_ca/Documents/2022 Fall/Project dev + mgmt. for cs/GNG-2101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3221C395-C294-49D0-9F5A-AACB3E497605}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C024F3B-D8C7-49F2-A68E-FEBFE7D077CF}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="1476" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -33,34 +44,139 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>File Size</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>Requires Internet</t>
+  </si>
+  <si>
+    <t>Voices Option</t>
+  </si>
+  <si>
+    <t>Input File Formats</t>
+  </si>
+  <si>
+    <t>Output File Formats</t>
+  </si>
+  <si>
+    <t>Languages Opions</t>
+  </si>
+  <si>
+    <t>Speed options</t>
+  </si>
+  <si>
+    <t>Acessable UI</t>
+  </si>
+  <si>
+    <t>By Chapter</t>
+  </si>
+  <si>
+    <t>Copyright disclamer</t>
+  </si>
+  <si>
+    <t>Runs on dell</t>
+  </si>
+  <si>
+    <t>Image Scan (OCR)</t>
+  </si>
+  <si>
+    <t>Editable by user</t>
+  </si>
+  <si>
+    <t>Max Conversion speed</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Website/app</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>1 to 5 (5 best)</t>
+  </si>
+  <si>
+    <t>MB/mintues</t>
+  </si>
+  <si>
     <t>Zamzar</t>
   </si>
   <si>
+    <t>https://www.zamzar.com/</t>
+  </si>
+  <si>
+    <t>Subsciption</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Speechify</t>
   </si>
   <si>
     <t>PDF to Speech – Speechify</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Text to Speech</t>
   </si>
   <si>
     <t>Free online PDF to Word Speech reader</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>File Size</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>https://www.zamzar.com/</t>
+    <t>1(Only audio type)</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensus </t>
+  </si>
+  <si>
+    <t>https://www.sensusaccess.com/</t>
+  </si>
+  <si>
+    <t>Webiste</t>
+  </si>
+  <si>
+    <t>naturalreaders</t>
+  </si>
+  <si>
+    <t>https://www.naturalreaders.com</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>70+</t>
   </si>
   <si>
     <t>Idea Target Specs</t>
@@ -69,29 +185,65 @@
     <t>Marginal Target Specs</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Application Type</t>
-  </si>
-  <si>
-    <t>Website/app</t>
-  </si>
-  <si>
-    <t>Requires Internet</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes </t>
+    <t>Min 50</t>
+  </si>
+  <si>
+    <t>Reasoning for Specs</t>
+  </si>
+  <si>
+    <t>Must be free to use and accessable to students and librarians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to handle text books (usually around 150mb) If not possible, divide into several smaller 50mb files </t>
+  </si>
+  <si>
+    <t>Requested by customer</t>
+  </si>
+  <si>
+    <t>Websites will require internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students have reportedly not like voices in the past an would like the option to chose amongst different options if possible </t>
+  </si>
+  <si>
+    <t>We would like to be able to process images (img,jpeg) and text documents (txt,docx,pdf,epub)</t>
+  </si>
+  <si>
+    <t>MP3 required, daisy if possible</t>
+  </si>
+  <si>
+    <t>French and English mandatory as per library policy</t>
+  </si>
+  <si>
+    <t>Control the speed of the voice in the mp3 file to allow for easier listening for students of differing comprehention levels</t>
+  </si>
+  <si>
+    <t>In the best case we would like students to be able to access the application on their own. If not the application will be used by librarians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaking up mp3 files on a chapter by chapter basis will help students keep their place when listening to long text documents. </t>
+  </si>
+  <si>
+    <t>When handling works of others we must inculde a copyright disclamer at the beginning of our mp3 files</t>
+  </si>
+  <si>
+    <t>The librarians work using dell laptops</t>
+  </si>
+  <si>
+    <t>Occationally students have image copies of books which they would like to copy to mp3</t>
+  </si>
+  <si>
+    <t>Occationally students have image copies of books which they would like to copy to mp3, if there are errors when converting between these different file fomats the libraians would like to be able to edit the documents before the MP3 is created</t>
+  </si>
+  <si>
+    <t>The librarians would like to avoid waited extended periods of time to convert a file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,6 +328,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -185,17 +376,59 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -481,161 +714,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" style="12" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="A6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="11" customFormat="1" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="11">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+    <row r="10" spans="1:18" s="13" customFormat="1" ht="183">
+      <c r="A10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -646,8 +1248,10 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{081E159F-953E-4A23-9CED-B0ED951F511C}"/>
     <hyperlink ref="B4" r:id="rId2" display="https://speechify.com/blog/pdf-to-speech/?landing_url=https%3A%2F%2Fspeechify.com%2Fblog%2Fpdf-to-speech%2F" xr:uid="{5912189C-E44C-447A-A296-EB0931657FE0}"/>
     <hyperlink ref="B5" r:id="rId3" display="https://texttospeech.io/online-pdf-to-word-reader" xr:uid="{FFB7CF98-8D6E-4F51-8C29-5997B5FB967E}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{29245D9B-B535-4626-B189-4DDE281FA6BF}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{91A85EC5-05C4-40BB-8662-7C26C4AD1C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/ldusa012_uottawa_ca/Documents/2022 Fall/Project dev + mgmt. for cs/GNG-2101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C024F3B-D8C7-49F2-A68E-FEBFE7D077CF}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56859D55-317E-435F-890B-92D490101CB6}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="1476" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -140,12 +140,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Speechify</t>
-  </si>
-  <si>
-    <t>PDF to Speech – Speechify</t>
-  </si>
-  <si>
     <t>Text to Speech</t>
   </si>
   <si>
@@ -158,6 +152,9 @@
     <t>2+</t>
   </si>
   <si>
+    <t>Failed to convert</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sensus </t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Webiste</t>
+  </si>
+  <si>
+    <t>5+</t>
   </si>
   <si>
     <t>naturalreaders</t>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -892,6 +892,9 @@
       <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
@@ -909,52 +912,88 @@
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
@@ -965,129 +1004,142 @@
       <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>64</v>
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="11" customFormat="1" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>500</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
         <v>6</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="11">
         <v>5</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>46</v>
+      <c r="M7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="11">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="11" customFormat="1" ht="15">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>500</v>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
@@ -1096,25 +1148,25 @@
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K8" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>33</v>
@@ -1123,122 +1175,69 @@
         <v>33</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R8" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" ht="15">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="11">
-        <v>2</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="11">
-        <v>10</v>
+    <row r="9" spans="1:18" s="13" customFormat="1" ht="183">
+      <c r="A9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" ht="183">
-      <c r="A10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
@@ -1246,12 +1245,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{081E159F-953E-4A23-9CED-B0ED951F511C}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://speechify.com/blog/pdf-to-speech/?landing_url=https%3A%2F%2Fspeechify.com%2Fblog%2Fpdf-to-speech%2F" xr:uid="{5912189C-E44C-447A-A296-EB0931657FE0}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://texttospeech.io/online-pdf-to-word-reader" xr:uid="{FFB7CF98-8D6E-4F51-8C29-5997B5FB967E}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{29245D9B-B535-4626-B189-4DDE281FA6BF}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{91A85EC5-05C4-40BB-8662-7C26C4AD1C6B}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://texttospeech.io/online-pdf-to-word-reader" xr:uid="{FFB7CF98-8D6E-4F51-8C29-5997B5FB967E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{29245D9B-B535-4626-B189-4DDE281FA6BF}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{91A85EC5-05C4-40BB-8662-7C26C4AD1C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/ldusa012_uottawa_ca/Documents/2022 Fall/Project dev + mgmt. for cs/GNG-2101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56859D55-317E-435F-890B-92D490101CB6}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4BD5BAA-515F-4037-8DC8-030C8376338D}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1476" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11328" yWindow="0" windowWidth="11712" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -65,21 +66,12 @@
     <t>Output File Formats</t>
   </si>
   <si>
-    <t>Languages Opions</t>
-  </si>
-  <si>
     <t>Speed options</t>
   </si>
   <si>
-    <t>Acessable UI</t>
-  </si>
-  <si>
     <t>By Chapter</t>
   </si>
   <si>
-    <t>Copyright disclamer</t>
-  </si>
-  <si>
     <t>Runs on dell</t>
   </si>
   <si>
@@ -113,9 +105,6 @@
     <t>1 to 5 (5 best)</t>
   </si>
   <si>
-    <t>MB/mintues</t>
-  </si>
-  <si>
     <t>Zamzar</t>
   </si>
   <si>
@@ -237,13 +226,25 @@
   </si>
   <si>
     <t>The librarians would like to avoid waited extended periods of time to convert a file</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Accessable UI</t>
+  </si>
+  <si>
+    <t>Copyright disclaimer</t>
+  </si>
+  <si>
+    <t>MB/mintue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +377,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -387,47 +388,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -716,166 +720,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27" style="12" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" style="11" customWidth="1"/>
+    <col min="19" max="19" width="21.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>9</v>
@@ -884,36 +888,36 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>35</v>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -922,163 +926,163 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="15">
-      <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="11" customFormat="1" ht="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -1088,13 +1092,13 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2">
         <v>6</v>
@@ -1103,52 +1107,52 @@
         <v>2</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="11">
+      <c r="K7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="10">
         <v>5</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="11">
+      <c r="M7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="11" customFormat="1" ht="15">
+    <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1159,85 +1163,87 @@
       <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="K8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="10">
         <v>2</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="11">
+      <c r="M8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" ht="183">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="O9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="P9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="Q9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="R9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="12" customFormat="1" ht="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
@@ -1252,4 +1258,393 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0431FE1-E393-4A5B-AAC5-FC490652822C}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{EAF873E6-4153-4B53-B899-7EFEE2CC2C06}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://texttospeech.io/online-pdf-to-word-reader" xr:uid="{5B56C3EE-F90B-4E19-B65B-527B76A7DF5F}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{95EE60B2-B2B2-4CF9-B48F-E67E3DC3714C}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{304EF2D6-3BF1-4B52-B988-9A4697826CBE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/ldusa012_uottawa_ca/Documents/2022 Fall/Project dev + mgmt. for cs/GNG-2101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4BD5BAA-515F-4037-8DC8-030C8376338D}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="11_F25DC773A252ABDACC104879A11B6D865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B44BB7EE-DADC-46DE-805E-C0D5B7AF1C1D}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="0" windowWidth="11712" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="528" windowWidth="11712" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="70">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>MB/mintue</t>
+  </si>
+  <si>
+    <t>&gt; 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website or Executable </t>
+  </si>
+  <si>
+    <t>MB/minute</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -432,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -720,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F29"/>
+    <sheetView topLeftCell="O26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,16 +1274,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0431FE1-E393-4A5B-AAC5-FC490652822C}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
@@ -1619,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -1632,6 +1644,193 @@
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>500</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11">
+        <v>4</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>5</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>100</v>
+      </c>
+      <c r="B37" s="11">
+        <v>10</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
